--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -520,14 +520,10 @@
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>22/01/2026 20:35:58</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Erro ao pesquisar CPF</t>
+          <t>Erro ao selecionar atividade</t>
         </is>
       </c>
     </row>
@@ -568,14 +564,10 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>22/01/2026 20:36:10</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Erro ao pesquisar CPF</t>
+          <t>Erro ao selecionar atividade</t>
         </is>
       </c>
     </row>
@@ -616,14 +608,10 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>22/01/2026 20:36:22</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Erro ao pesquisar CPF</t>
+          <t>Erro ao selecionar atividade</t>
         </is>
       </c>
     </row>
@@ -664,14 +652,10 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>22/01/2026 20:36:34</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Erro ao pesquisar CPF</t>
+          <t>Erro ao selecionar atividade</t>
         </is>
       </c>
     </row>

--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -1,34 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ficha\AutomacaoNFSE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Numero_Nota</t>
+  </si>
+  <si>
+    <t>Data_Emissao</t>
+  </si>
+  <si>
+    <t>Mensagem_Erro</t>
+  </si>
+  <si>
+    <t>082.492.872-58</t>
+  </si>
+  <si>
+    <t>ABRAÃO VINICIUS CORDEIRO CARDOSO</t>
+  </si>
+  <si>
+    <t>ABRAÃO</t>
+  </si>
+  <si>
+    <t>(91) 98540-9673</t>
+  </si>
+  <si>
+    <t>abraaocardoso1812@gmail.com</t>
+  </si>
+  <si>
+    <t>468.551.142-53</t>
+  </si>
+  <si>
+    <t>ADELI MARA CARDOSO CALDEIRA</t>
+  </si>
+  <si>
+    <t>ADELI</t>
+  </si>
+  <si>
+    <t>(91) 98273-2961</t>
+  </si>
+  <si>
+    <t>613.819.422-53</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO TAVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>(91) 99222-5660</t>
+  </si>
+  <si>
+    <t>003.046.492-79</t>
+  </si>
+  <si>
+    <t>DANIELE BARBOSA COSTA</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>(91) 98496-9889</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +149,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,258 +453,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CPF</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Apelido</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CEP</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Complemento</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Numero_Nota</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Data_Emissao</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Mensagem_Erro</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>031.570.532-99</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elizabeth Souza Do Rosario</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Elizabeth</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66083-049</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(91) 98395-2299</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>66113440</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>110</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ERRO</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Erro ao selecionar atividade</t>
-        </is>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>365.903.552-15</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>JANDIRA BARRETO PEREIRA MAUÉS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JANDIRA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>66000-000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(21) 97547-6992</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>66113100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <v>110</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ERRO</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Erro ao selecionar atividade</t>
-        </is>
-      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>605.392.912-34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mauro Baia Begot</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MAURO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>66115-091</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(91) 98574-9965</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>66113010</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>110</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ERRO</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Erro ao selecionar atividade</t>
-        </is>
-      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>036.456.992-10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Daniela Alves De Oliveira Silva</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DANIELA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>66000-000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(91) 98425-4022</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>66635070</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>110</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ERRO</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Erro ao selecionar atividade</t>
-        </is>
-      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="220">
   <si>
     <t>CPF</t>
   </si>
@@ -106,18 +106,596 @@
   </si>
   <si>
     <t>(91) 98496-9889</t>
+  </si>
+  <si>
+    <t>086.517.412-19</t>
+  </si>
+  <si>
+    <t>ARIANNE REBEKA BELEM DA SILVA</t>
+  </si>
+  <si>
+    <t>ARIANNE</t>
+  </si>
+  <si>
+    <t>(91) 98560-5939</t>
+  </si>
+  <si>
+    <t>700.640.652-86</t>
+  </si>
+  <si>
+    <t>REINARA FEITOSA DA SILVA</t>
+  </si>
+  <si>
+    <t>REINARA</t>
+  </si>
+  <si>
+    <t>(91) 98010-5359</t>
+  </si>
+  <si>
+    <t>427.850.062-91</t>
+  </si>
+  <si>
+    <t>SHIRLEY SANTOS DE LIMA</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>(91) 99623-9239</t>
+  </si>
+  <si>
+    <t>038.759.222-98</t>
+  </si>
+  <si>
+    <t>LUAN FERNANDO TELES DE CASTRO</t>
+  </si>
+  <si>
+    <t>LUAN</t>
+  </si>
+  <si>
+    <t>(91) 98419-9553</t>
+  </si>
+  <si>
+    <t>781.837.075-72</t>
+  </si>
+  <si>
+    <t>MARIO SERGIO DE JESUS SILVA</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>66113-080</t>
+  </si>
+  <si>
+    <t>(91) 98222-2664</t>
+  </si>
+  <si>
+    <t>bdaniellycosta@gmail.com</t>
+  </si>
+  <si>
+    <t>049.795.612-84</t>
+  </si>
+  <si>
+    <t>JAQUELINE CARDOSO DE JESUS</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>(91) 98482-5544</t>
+  </si>
+  <si>
+    <t>611.871.942-04</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>(91) 98882-7668</t>
+  </si>
+  <si>
+    <t>750.399.742-72</t>
+  </si>
+  <si>
+    <t>WALLACI PANTOJA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>WALLACI</t>
+  </si>
+  <si>
+    <t>(91) 98833-2633</t>
+  </si>
+  <si>
+    <t>330.397.712-72</t>
+  </si>
+  <si>
+    <t>SAMUEL PEREIRA MIRANDA JUNIOR</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>(91) 98290-6600</t>
+  </si>
+  <si>
+    <t>047.196.912-50</t>
+  </si>
+  <si>
+    <t>JULIANE CHRISTINE GOES DIAMANTINO</t>
+  </si>
+  <si>
+    <t>JULIANE</t>
+  </si>
+  <si>
+    <t>(91) 98345-6644</t>
+  </si>
+  <si>
+    <t>022.059.242-06</t>
+  </si>
+  <si>
+    <t>KAIQUE HENRIQUE FARIAS ARAUJO</t>
+  </si>
+  <si>
+    <t>KAIQUE</t>
+  </si>
+  <si>
+    <t>(91) 98836-4559</t>
+  </si>
+  <si>
+    <t>henriquekaique535@gmail.com</t>
+  </si>
+  <si>
+    <t>011.380.972-76</t>
+  </si>
+  <si>
+    <t>CAMILA RENATA ALVES LEITE</t>
+  </si>
+  <si>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t>(91) 99331-5419</t>
+  </si>
+  <si>
+    <t>329.630.502-59</t>
+  </si>
+  <si>
+    <t>MARIA FRANCISCA MONTE DUARTE</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>(91) 98233-0068</t>
+  </si>
+  <si>
+    <t>174.669.462-91</t>
+  </si>
+  <si>
+    <t>ELZA MARINA MIRANDA DA SILVA</t>
+  </si>
+  <si>
+    <t>ELZA</t>
+  </si>
+  <si>
+    <t>(91) 98178-7707</t>
+  </si>
+  <si>
+    <t>704.672.422-91</t>
+  </si>
+  <si>
+    <t>ALDA RODRIGUES COSTA</t>
+  </si>
+  <si>
+    <t>ALDA</t>
+  </si>
+  <si>
+    <t>(91) 99102-1407</t>
+  </si>
+  <si>
+    <t>068.761.652-21</t>
+  </si>
+  <si>
+    <t>KARLA BRITO LOBO</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>(91) 98490-8605</t>
+  </si>
+  <si>
+    <t>bkarlalobo@gmail.vom</t>
+  </si>
+  <si>
+    <t>015.195.792-41</t>
+  </si>
+  <si>
+    <t>JOSE ALESSANDRO SOUZA CRUZ</t>
+  </si>
+  <si>
+    <t>(91) 98138-3129</t>
+  </si>
+  <si>
+    <t>048.746.022-74</t>
+  </si>
+  <si>
+    <t>ALESSANDRO OLIVEIRA JATAHY</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>(91) 98581-9412</t>
+  </si>
+  <si>
+    <t>053.548.532-81</t>
+  </si>
+  <si>
+    <t>CARLA NAELY PEREIRA DE SOUSA</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>(91) 98475-0796</t>
+  </si>
+  <si>
+    <t>carlanaelypereirasou@gmail.com</t>
+  </si>
+  <si>
+    <t>013.547.852-90</t>
+  </si>
+  <si>
+    <t>ANDREZA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t>ANDREZA</t>
+  </si>
+  <si>
+    <t>(91) 98087-2488</t>
+  </si>
+  <si>
+    <t>017.718.262-82</t>
+  </si>
+  <si>
+    <t>ADRIELY OLIVEIRA TRINDADE MOREIRA</t>
+  </si>
+  <si>
+    <t>ADRIELY</t>
+  </si>
+  <si>
+    <t>(91) 98324-6039</t>
+  </si>
+  <si>
+    <t>020.912.962-01</t>
+  </si>
+  <si>
+    <t>PEDRO ARTHUR ASSUNÇÃO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>(91) 99299-8838</t>
+  </si>
+  <si>
+    <t>077.179.437-19</t>
+  </si>
+  <si>
+    <t>ALDEMIR SILVA CALAZANS</t>
+  </si>
+  <si>
+    <t>ALDEMIR</t>
+  </si>
+  <si>
+    <t>(91) 98025-6008</t>
+  </si>
+  <si>
+    <t>511.491.682-34</t>
+  </si>
+  <si>
+    <t>SILVIA CRISTINA DA CRUZ ASSUNÇÃO</t>
+  </si>
+  <si>
+    <t>SILVIA</t>
+  </si>
+  <si>
+    <t>(91) 99154-8838</t>
+  </si>
+  <si>
+    <t>607.056.392-15</t>
+  </si>
+  <si>
+    <t>ROSENILDA BRABO DA SILVA</t>
+  </si>
+  <si>
+    <t>ROSENILDA</t>
+  </si>
+  <si>
+    <t>(91) 98144-8145</t>
+  </si>
+  <si>
+    <t>702.145.242-05</t>
+  </si>
+  <si>
+    <t>KERULAY KETNEY SANTANA MACIEL</t>
+  </si>
+  <si>
+    <t>KERULAY</t>
+  </si>
+  <si>
+    <t>(91) 98873-7044</t>
+  </si>
+  <si>
+    <t>032.267.872-25</t>
+  </si>
+  <si>
+    <t>GABRIEL DA SILVA SERRAO</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>(91) 98484-6162</t>
+  </si>
+  <si>
+    <t>025.514.852-66</t>
+  </si>
+  <si>
+    <t>LUANA RODRIGUES BARBOSA</t>
+  </si>
+  <si>
+    <t>LUANA</t>
+  </si>
+  <si>
+    <t>(91) 99823-7579</t>
+  </si>
+  <si>
+    <t>052.552.922-57</t>
+  </si>
+  <si>
+    <t>MAIRA MENDES ROCHA GOMES</t>
+  </si>
+  <si>
+    <t>MAIRA</t>
+  </si>
+  <si>
+    <t>(91) 98527-5335</t>
+  </si>
+  <si>
+    <t>023.579.742-14</t>
+  </si>
+  <si>
+    <t>EMERSON JHONY CRUZ BOTELHO</t>
+  </si>
+  <si>
+    <t>EMERSON</t>
+  </si>
+  <si>
+    <t>(91) 98533-4662</t>
+  </si>
+  <si>
+    <t>933.927.102-53</t>
+  </si>
+  <si>
+    <t>LUCAS LEAL BARROSO</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>(91) 99108-9098</t>
+  </si>
+  <si>
+    <t>948.050.672-68</t>
+  </si>
+  <si>
+    <t>EVILA CAROLINE SOEIRO ROCHA</t>
+  </si>
+  <si>
+    <t>EVILA</t>
+  </si>
+  <si>
+    <t>(91) 99823-4871</t>
+  </si>
+  <si>
+    <t>689.778.672-15</t>
+  </si>
+  <si>
+    <t>JOAO CARLOS PANTOJA BENTES</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>(91) 99182-5637</t>
+  </si>
+  <si>
+    <t>joaocarlospantes@gmail.com</t>
+  </si>
+  <si>
+    <t>674.640.412-91</t>
+  </si>
+  <si>
+    <t>VILMA DA SILVA FERREIRA</t>
+  </si>
+  <si>
+    <t>VILMA</t>
+  </si>
+  <si>
+    <t>(91) 98268-0715</t>
+  </si>
+  <si>
+    <t>700.280.282-87</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO M DOS SANTOS</t>
+  </si>
+  <si>
+    <t>(91) 98111-1124</t>
+  </si>
+  <si>
+    <t>042.425.192-22</t>
+  </si>
+  <si>
+    <t>MATHEUS ARTHUR COSTA RIBEIRO</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>(91) 98563-2514</t>
+  </si>
+  <si>
+    <t>007.363.222-80</t>
+  </si>
+  <si>
+    <t>JESSICA GUIMARAES DA SILVA</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>(91) 98276-1539</t>
+  </si>
+  <si>
+    <t>016.636.912-82</t>
+  </si>
+  <si>
+    <t>CIBELLY PATRICIA MACHADO BARATA</t>
+  </si>
+  <si>
+    <t>CIBELLY</t>
+  </si>
+  <si>
+    <t>(91) 98179-7546</t>
+  </si>
+  <si>
+    <t>cibellymachado51@gmail.com</t>
+  </si>
+  <si>
+    <t>020.426.232-10</t>
+  </si>
+  <si>
+    <t>FLAVIA THAYNA CALDAS DE JESUS</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>(91) 98419-0624</t>
+  </si>
+  <si>
+    <t>caldassfavia@gmail.com</t>
+  </si>
+  <si>
+    <t>687.194.002-25</t>
+  </si>
+  <si>
+    <t>SIDNEY FIGUEIREDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>SIDNEY</t>
+  </si>
+  <si>
+    <t>(91) 98298-2846</t>
+  </si>
+  <si>
+    <t>010.065.702-84</t>
+  </si>
+  <si>
+    <t>MARCIA DOS SANTOS NOGUEIRA</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>(91) 98049-2646</t>
+  </si>
+  <si>
+    <t>marcinha_nogueira1205@outlook.com.br</t>
+  </si>
+  <si>
+    <t>307.048.712-20</t>
+  </si>
+  <si>
+    <t>CLAUDIA SOUZA PALHETA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>(91) 98184-4504</t>
+  </si>
+  <si>
+    <t>864.548.032-87</t>
+  </si>
+  <si>
+    <t>LETICIA HELENA NASCIMENTO TAVARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETICIA </t>
+  </si>
+  <si>
+    <t>(91) 98165-5351</t>
+  </si>
+  <si>
+    <t>208.398.392-00</t>
+  </si>
+  <si>
+    <t>ANTONIO EDUARDO DA SILVA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>(91) 98504-4829</t>
+  </si>
+  <si>
+    <t>879.120.822-04</t>
+  </si>
+  <si>
+    <t>ALDILENE CORREA SAMPAIO</t>
+  </si>
+  <si>
+    <t>ALDILENE</t>
+  </si>
+  <si>
+    <t>(91) 98391-1643</t>
+  </si>
+  <si>
+    <t>067.557.322-06</t>
+  </si>
+  <si>
+    <t>EMILLY CAMILE PINHEIRO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>EMILLY</t>
+  </si>
+  <si>
+    <t>(91) 98390-0341</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,8 +703,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,15 +725,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -169,21 +747,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -207,77 +789,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,160 +813,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -454,151 +949,2084 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>66113440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>66113100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>66113010</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>66635070</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>66115430</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-    </row>
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>66050290</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>66113170</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>66050040</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>66635070</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2">
+        <v>66050290</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>66050240</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>66113220</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>66050070</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>66113010</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2">
+        <v>66113090</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2">
+        <v>66113400</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2">
+        <v>66113220</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2">
+        <v>66113010</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2">
+        <v>66133200</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2">
+        <v>66113320</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2">
+        <v>66113242</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2">
+        <v>66113455</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="2">
+        <v>66113150</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2">
+        <v>66050240</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2">
+        <v>66650520</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="2">
+        <v>66113080</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="2">
+        <v>66113240</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2">
+        <v>66113240</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="2">
+        <v>66113240</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2">
+        <v>66113280</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="2">
+        <v>66615062</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2">
+        <v>66615062</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="2">
+        <v>66113140</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="2">
+        <v>66087421</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="2">
+        <v>66050240</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="2">
+        <v>66083030</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="2">
+        <v>66113085</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="2">
+        <v>66050240</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2">
+        <v>66050420</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>66115091</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="2">
+        <v>66113270</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="2">
+        <v>66113330</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="2">
+        <v>66117370</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="2">
+        <v>66113000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H46" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="2">
+        <v>66120260</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="2">
+        <v>66113270</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="2">
+        <v>66113000</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="2">
+        <v>66050250</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="2">
+        <v>66083441</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="2">
+        <v>66083150</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="2">
+        <v>66113240</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>